--- a/api/Board/Free_API.xlsx
+++ b/api/Board/Free_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED4AE0-5F18-4E13-A81E-CE74E8EB05C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C2349D-6F36-4255-AC19-48E0BF89049B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="106">
   <si>
     <t>Title</t>
   </si>
@@ -856,6 +856,35 @@
   </si>
   <si>
     <t>Board DB Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -948,6 +977,7 @@
       "status": "GENERAL",
       "views" : 1,
       "likes" : 1,
+      "is_anonymous" : "true",
       "created_at" : "2021-01-01T01:01:11.111",
       "created_by" : "Hong gil dong",
       "updated_at" : null,
@@ -967,35 +997,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 리스트</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Object&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>{
    "transaction_time" : "2021-01-08T17:12:33.333",
    "result_code" : "OK",
@@ -1084,6 +1085,7 @@
       "status": "GENERAL",
       "views" : 1,
       "likes" : 1,
+      "is_anonymous" : "true",
       "created_at" : "2021-01-01T01:01:11.111",
       "created_by" : "Hong gil dong",
       "updated_at" : null,
@@ -1184,6 +1186,7 @@
       "status": "GENERAL",
       "views" : 1,
       "likes" : 1,
+      "is_anonymous" : "true",
       "level" : 0,
       "user_id" : 1
    }
@@ -1281,6 +1284,7 @@
       "status": "GENERAL",
       "views" : 1,
       "likes" : 1,
+      "is_anonymous" : "true",
       "created_at" : "2021-01-01T01:01:11.111",
       "created_by" : "Hong gil dong",
       "updated_at" : null,
@@ -1288,6 +1292,68 @@
       "level" : 0
    }
 }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>익명여부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>익명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> true, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비익명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> false</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,7 +1524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1527,17 +1593,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1547,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,22 +1661,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1632,13 +1703,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1668,21 +1742,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1691,6 +1750,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1708,12 +1773,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2031,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2047,95 +2106,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2184,64 +2243,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2323,14 +2382,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>21</v>
@@ -2440,7 +2499,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="8"/>
@@ -2460,54 +2519,57 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="8" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
@@ -2518,34 +2580,36 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>32</v>
@@ -2553,78 +2617,86 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H34" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="34" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
@@ -3188,20 +3260,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3216,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3232,95 +3304,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3379,64 +3451,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
@@ -3635,7 +3707,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="8"/>
@@ -3655,54 +3727,57 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="8" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
@@ -3713,34 +3788,36 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>32</v>
@@ -3748,78 +3825,86 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H34" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="34" t="s">
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="1:8" ht="272.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="46" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" ht="280" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
@@ -4383,20 +4468,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4411,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4427,95 +4512,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4714,54 +4799,57 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="8" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>21</v>
@@ -4772,34 +4860,36 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>32</v>
@@ -4807,250 +4897,248 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H24" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="22" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H25" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="40" t="s">
+    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" ht="223.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="46" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="34" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H31" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="22" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G32" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G34" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="22" t="s">
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H35" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="22" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G36" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H36" s="25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -5061,16 +5149,16 @@
         <v>21</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="9" t="s">
-        <v>46</v>
+      <c r="A38" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -5078,116 +5166,119 @@
         <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
-        <v>49</v>
+      <c r="A39" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="9" t="s">
-        <v>51</v>
+      <c r="A40" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>52</v>
+      <c r="C40" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>89</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="60" t="s">
-        <v>88</v>
+      <c r="H41" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8"/>
@@ -5195,17 +5286,19 @@
         <v>55</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8"/>
@@ -5213,73 +5306,111 @@
         <v>27</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="22" t="s">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G48" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H48" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="22" t="s">
+    <row r="49" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G49" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H49" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="34" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="46" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" ht="391" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5603,13 +5734,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:H51"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5617,11 +5743,16 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3A039392-055F-41DA-91B1-F0EA51FC2A4E}"/>
-    <hyperlink ref="A26" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5631,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5647,95 +5778,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5954,54 +6085,57 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="8" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>21</v>
@@ -6012,34 +6146,36 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>32</v>
@@ -6047,235 +6183,233 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H25" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="40" t="s">
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:13" ht="265.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="46" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:13" ht="264" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="34" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H31" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="22" t="s">
+    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G32" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="22" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G34" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="22" t="s">
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H35" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="22" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G36" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H36" s="25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -6286,16 +6420,16 @@
         <v>21</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="9" t="s">
-        <v>46</v>
+      <c r="A38" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -6303,116 +6437,119 @@
         <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
-        <v>49</v>
+      <c r="A39" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="9" t="s">
-        <v>51</v>
+      <c r="A40" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>52</v>
+      <c r="C40" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>89</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="60" t="s">
-        <v>88</v>
+      <c r="H41" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8"/>
@@ -6420,17 +6557,19 @@
         <v>55</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8"/>
@@ -6438,75 +6577,112 @@
         <v>27</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="22" t="s">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G48" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H48" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="22" t="s">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G49" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H49" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="34" t="s">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="46" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" ht="391" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-    </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+    </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
@@ -6829,14 +7005,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:H51"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -6844,11 +7014,17 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{26F60CE5-D601-4B2A-BA26-C5CDFC97ECD4}"/>
-    <hyperlink ref="A26" r:id="rId2" xr:uid="{EED67366-FBCF-48F6-BE02-C9FD51C451F4}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{EED67366-FBCF-48F6-BE02-C9FD51C451F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6874,95 +7050,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7011,64 +7187,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7151,28 +7327,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7295,24 +7471,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7916,13 +8092,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7932,6 +8101,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Free_API.xlsx
+++ b/api/Board/Free_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C2349D-6F36-4255-AC19-48E0BF89049B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C136F692-7359-4FF0-8F22-C1E619005A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="자유게시판 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="106">
   <si>
     <t>Title</t>
   </si>
@@ -1602,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,6 +1671,9 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1679,6 +1682,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,7 +1708,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1701,18 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2091,7 +2094,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2106,95 +2109,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2243,64 +2246,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2654,79 +2657,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H35" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="31" t="s">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="28" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" ht="387.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
@@ -3260,14 +3253,14 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -3289,7 +3282,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3304,95 +3297,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3451,64 +3444,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
@@ -3862,79 +3855,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H35" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="31" t="s">
+    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" ht="280" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="28" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" ht="354.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
@@ -4468,14 +4451,14 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -4496,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4512,95 +4495,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4934,87 +4917,67 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
@@ -5368,13 +5331,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="25" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="25" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -5385,32 +5348,52 @@
         <v>21</v>
       </c>
       <c r="H49" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="31" t="s">
+    <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" spans="1:8" ht="391" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="28" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+    </row>
+    <row r="52" spans="1:8" ht="358.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5734,8 +5717,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5762,7 +5745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
@@ -5778,95 +5761,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6221,66 +6204,66 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="264" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
@@ -6325,11 +6308,11 @@
       <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="25" t="s">
@@ -6639,49 +6622,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G50" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H50" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="31" t="s">
+    <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" spans="1:8" ht="391" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="28" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+    </row>
+    <row r="52" spans="1:8" ht="375" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -7005,8 +7008,14 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -7014,12 +7023,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7034,7 +7037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
@@ -7050,95 +7053,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7187,64 +7190,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7327,28 +7330,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7471,24 +7474,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -8092,6 +8095,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8101,13 +8111,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Free_API.xlsx
+++ b/api/Board/Free_API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C136F692-7359-4FF0-8F22-C1E619005A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D0D32-A871-48AC-A90E-5CF221F7618D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="자유게시판 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="116">
   <si>
     <t>Title</t>
   </si>
@@ -1357,12 +1357,248 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,6 +1714,22 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1602,7 +1854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,6 +1923,10 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1776,6 +2032,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2093,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2109,95 +2381,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2246,64 +2518,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="43"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2698,58 +2970,114 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="68"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="68"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="68"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" ht="387.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="29" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+    </row>
+    <row r="42" spans="1:8" ht="367" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
@@ -3253,14 +3581,14 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A42:H42"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -3274,6 +3602,7 @@
     <hyperlink ref="A12" r:id="rId2" xr:uid="{E1F7B24E-D84A-408B-99F9-ED99F2301FAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3297,95 +3626,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3444,64 +3773,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="43"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
@@ -3896,28 +4225,28 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="354.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
@@ -4495,95 +4824,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4918,66 +5247,66 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
@@ -5372,28 +5701,28 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="358.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5745,7 +6074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
@@ -5761,95 +6090,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6204,66 +6533,66 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:13" ht="264" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
@@ -6308,11 +6637,11 @@
       <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="25" t="s">
@@ -6663,28 +6992,28 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="375" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -7008,12 +7337,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="A51:H51"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
@@ -7023,6 +7346,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7053,95 +7382,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7190,64 +7519,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7330,28 +7659,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7474,24 +7803,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -8095,13 +8424,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8111,6 +8433,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Free_API.xlsx
+++ b/api/Board/Free_API.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D0D32-A871-48AC-A90E-5CF221F7618D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7CE41-9E89-4E15-B8C3-3F0BE4BBF86E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="자유게시판 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="자유게시판 상세 조회" sheetId="2" r:id="rId2"/>
-    <sheet name="자유게시판 작성" sheetId="3" r:id="rId3"/>
-    <sheet name="자유게시판 수정" sheetId="4" r:id="rId4"/>
-    <sheet name="자유게시판 삭제" sheetId="5" r:id="rId5"/>
+    <sheet name="자유게시판 검색(제목)" sheetId="6" r:id="rId2"/>
+    <sheet name="자유게시판 검색(제목+내용)" sheetId="7" r:id="rId3"/>
+    <sheet name="자유게시판 검색(작성자)" sheetId="8" r:id="rId4"/>
+    <sheet name="자유게시판 상세 조회" sheetId="2" r:id="rId5"/>
+    <sheet name="자유게시판 작성" sheetId="3" r:id="rId6"/>
+    <sheet name="자유게시판 수정" sheetId="4" r:id="rId7"/>
+    <sheet name="자유게시판 삭제" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="125">
   <si>
     <t>Title</t>
   </si>
@@ -1593,12 +1596,271 @@
     <t>default 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,6 +1993,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1854,7 +2129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1928,6 +2203,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,22 +2333,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2365,11 +2650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -2377,101 +2662,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +2782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2507,7 +2792,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2517,67 +2802,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="44" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="46" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2621,7 +2906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2639,7 +2924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2655,7 +2940,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2673,7 +2958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>87</v>
       </c>
@@ -2693,7 +2978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -2713,7 +2998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -2733,7 +3018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -2753,7 +3038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -2773,7 +3058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="27" t="s">
         <v>92</v>
       </c>
@@ -2793,7 +3078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
@@ -2813,7 +3098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
@@ -2833,7 +3118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +3138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
@@ -2873,7 +3158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
@@ -2891,7 +3176,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
@@ -2909,7 +3194,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="25" t="s">
         <v>38</v>
       </c>
@@ -2929,7 +3214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="28" t="s">
         <v>73</v>
       </c>
@@ -2949,7 +3234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>93</v>
       </c>
@@ -2969,8 +3254,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="29"/>
@@ -2981,12 +3266,12 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="29"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="29"/>
@@ -2997,14 +3282,14 @@
       <c r="G37" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="67" t="s">
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="29"/>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="37" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="29"/>
@@ -3015,14 +3300,14 @@
       <c r="G38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="68"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="67" t="s">
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="29"/>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="37" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="29"/>
@@ -3033,53 +3318,53 @@
       <c r="G39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="68"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="67" t="s">
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="30" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="39" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
-    </row>
-    <row r="42" spans="1:8" ht="367" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="31" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="367" customHeight="1">
+      <c r="A42" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3089,7 +3374,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3099,7 +3384,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3109,7 +3394,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3119,7 +3404,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3129,7 +3414,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3139,7 +3424,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3149,7 +3434,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3159,7 +3444,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3169,7 +3454,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3179,7 +3464,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3189,7 +3474,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3199,7 +3484,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3209,7 +3494,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3219,7 +3504,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -3229,7 +3514,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -3239,7 +3524,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -3249,7 +3534,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3259,7 +3544,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3269,7 +3554,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3279,7 +3564,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3289,7 +3574,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3299,7 +3584,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3309,7 +3594,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3319,7 +3604,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3329,7 +3614,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3339,7 +3624,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3349,7 +3634,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3359,7 +3644,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3369,7 +3654,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3379,7 +3664,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3389,7 +3674,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3399,7 +3684,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3409,7 +3694,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3419,7 +3704,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3429,7 +3714,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3439,7 +3724,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3449,7 +3734,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3459,7 +3744,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3469,7 +3754,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3479,7 +3764,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3489,7 +3774,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3499,7 +3784,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3509,7 +3794,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3519,7 +3804,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3529,7 +3814,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3539,7 +3824,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3549,7 +3834,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3559,7 +3844,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3569,7 +3854,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3607,6 +3892,3741 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEDB40-C0BF-4D6D-9763-2B003D363FCE}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="367" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{56F03BE3-66FF-4E0D-A9A6-A557767FDBB7}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{CFBCA28C-DC50-496D-B6AB-978A000A4207}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76F41EA-A71C-46B6-A57C-7AE6D1331F28}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="367" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F496B527-87E5-43F4-952F-01613109E241}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{C2AA8DD2-A244-4C1E-B5D5-EBC7FC5C4D08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC73131-1F2D-41E4-B4E1-F8C41301C568}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" ht="367" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{860982E7-F11B-4FBE-970E-523CC8097402}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{077AB317-5708-4152-ABD9-0889BFB7A37D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -3614,7 +7634,7 @@
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -3622,101 +7642,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3742,7 +7762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3762,7 +7782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3772,67 +7792,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="44" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="46" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +7878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
@@ -3876,7 +7896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
         <v>29</v>
       </c>
@@ -3894,7 +7914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +7930,7 @@
       </c>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +7948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="22" t="s">
         <v>87</v>
       </c>
@@ -3948,7 +7968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -3968,7 +7988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -3988,7 +8008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -4008,7 +8028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -4028,7 +8048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="27" t="s">
         <v>92</v>
       </c>
@@ -4048,7 +8068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
@@ -4068,7 +8088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +8108,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
@@ -4108,7 +8128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
@@ -4128,7 +8148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
@@ -4146,7 +8166,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
@@ -4164,7 +8184,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="25" t="s">
         <v>38</v>
       </c>
@@ -4184,7 +8204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="28" t="s">
         <v>73</v>
       </c>
@@ -4204,7 +8224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="16" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>93</v>
       </c>
@@ -4224,31 +8244,31 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:8" ht="18" customHeight="1">
+      <c r="A36" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8" ht="354.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="31" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="1:8" ht="354.5" customHeight="1">
+      <c r="A37" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4258,7 +8278,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4268,7 +8288,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4278,7 +8298,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4288,7 +8308,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4298,7 +8318,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4308,7 +8328,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4318,7 +8338,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4328,7 +8348,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4338,7 +8358,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -4348,7 +8368,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4358,7 +8378,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4368,7 +8388,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4378,7 +8398,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4388,7 +8408,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4398,7 +8418,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4408,7 +8428,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4418,7 +8438,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -4428,7 +8448,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -4438,7 +8458,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -4448,7 +8468,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4458,7 +8478,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4468,7 +8488,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4478,7 +8498,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4488,7 +8508,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4498,7 +8518,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4508,7 +8528,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4518,7 +8538,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4528,7 +8548,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4538,7 +8558,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4548,7 +8568,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4558,7 +8578,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4568,7 +8588,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4578,7 +8598,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4588,7 +8608,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4598,7 +8618,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4608,7 +8628,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4618,7 +8638,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4628,7 +8648,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4638,7 +8658,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4648,7 +8668,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4658,7 +8678,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4668,7 +8688,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4678,7 +8698,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4688,7 +8708,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4698,7 +8718,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4708,7 +8728,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4718,7 +8738,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4728,7 +8748,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4738,7 +8758,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4748,7 +8768,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4758,7 +8778,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4768,7 +8788,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4804,7 +8824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -4812,7 +8832,7 @@
       <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -4820,101 +8840,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4940,7 +8960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -4958,7 +8978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4976,7 +8996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +9012,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -5010,7 +9030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
@@ -5030,7 +9050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -5050,7 +9070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -5070,7 +9090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -5090,7 +9110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -5110,7 +9130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>88</v>
       </c>
@@ -5130,7 +9150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -5150,7 +9170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -5170,7 +9190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -5190,7 +9210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -5208,7 +9228,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
@@ -5226,7 +9246,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="25" t="s">
         <v>38</v>
       </c>
@@ -5246,69 +9266,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="53" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A27" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-    </row>
-    <row r="28" spans="1:8" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="31" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="1:8" ht="303.5" customHeight="1">
+      <c r="A28" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
         <v>10</v>
       </c>
@@ -5334,7 +9354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="25" t="s">
         <v>26</v>
       </c>
@@ -5352,7 +9372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="25" t="s">
         <v>29</v>
       </c>
@@ -5370,7 +9390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
@@ -5386,7 +9406,7 @@
       </c>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
@@ -5404,7 +9424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="25" t="s">
         <v>87</v>
       </c>
@@ -5424,7 +9444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
@@ -5444,7 +9464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
@@ -5464,7 +9484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>46</v>
       </c>
@@ -5484,7 +9504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -5504,7 +9524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>51</v>
       </c>
@@ -5524,7 +9544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>88</v>
       </c>
@@ -5544,7 +9564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>102</v>
       </c>
@@ -5564,7 +9584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>53</v>
       </c>
@@ -5584,7 +9604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
         <v>57</v>
       </c>
@@ -5604,7 +9624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -5622,7 +9642,7 @@
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
@@ -5640,7 +9660,7 @@
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
@@ -5660,7 +9680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="25" t="s">
         <v>73</v>
       </c>
@@ -5680,7 +9700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="25" t="s">
         <v>93</v>
       </c>
@@ -5700,31 +9720,31 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="39" t="s">
+    <row r="51" spans="1:8" ht="19" customHeight="1">
+      <c r="A51" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-    </row>
-    <row r="52" spans="1:8" ht="358.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="31" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+    </row>
+    <row r="52" spans="1:8" ht="358.5" customHeight="1">
+      <c r="A52" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5734,7 +9754,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5744,7 +9764,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5754,7 +9774,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5764,7 +9784,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5774,7 +9794,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5784,7 +9804,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5794,7 +9814,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5804,7 +9824,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5814,7 +9834,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5824,7 +9844,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5834,7 +9854,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5844,7 +9864,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5854,7 +9874,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5864,7 +9884,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5874,7 +9894,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5884,7 +9904,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5894,7 +9914,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5904,7 +9924,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5914,7 +9934,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5924,7 +9944,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5934,7 +9954,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5944,7 +9964,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5954,7 +9974,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5964,7 +9984,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5974,7 +9994,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5984,7 +10004,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5994,7 +10014,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -6004,7 +10024,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -6014,7 +10034,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -6024,7 +10044,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -6034,7 +10054,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -6070,7 +10090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -6078,7 +10098,7 @@
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -6086,101 +10106,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6206,7 +10226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6224,7 +10244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -6242,7 +10262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6258,7 +10278,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -6276,7 +10296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
@@ -6296,7 +10316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
@@ -6316,7 +10336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -6336,7 +10356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -6356,7 +10376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -6376,7 +10396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -6396,7 +10416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
@@ -6416,7 +10436,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>102</v>
       </c>
@@ -6436,7 +10456,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -6456,7 +10476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
@@ -6476,7 +10496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -6494,7 +10514,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
         <v>61</v>
       </c>
@@ -6512,7 +10532,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13">
       <c r="A25" s="25" t="s">
         <v>38</v>
       </c>
@@ -6532,69 +10552,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:13" ht="16" customHeight="1">
+      <c r="A26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="53" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+    </row>
+    <row r="27" spans="1:13" ht="17" customHeight="1">
+      <c r="A27" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-    </row>
-    <row r="28" spans="1:13" ht="264" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="31" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="1:13" ht="264" customHeight="1">
+      <c r="A28" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="26" t="s">
         <v>10</v>
       </c>
@@ -6620,7 +10640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="15.5" customHeight="1">
       <c r="A32" s="25" t="s">
         <v>26</v>
       </c>
@@ -6637,13 +10657,13 @@
       <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="25" t="s">
         <v>29</v>
       </c>
@@ -6661,7 +10681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
@@ -6677,7 +10697,7 @@
       </c>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
@@ -6695,7 +10715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="25" t="s">
         <v>87</v>
       </c>
@@ -6715,7 +10735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
@@ -6735,7 +10755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
@@ -6755,7 +10775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>46</v>
       </c>
@@ -6775,7 +10795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -6795,7 +10815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>51</v>
       </c>
@@ -6815,7 +10835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>88</v>
       </c>
@@ -6835,7 +10855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>102</v>
       </c>
@@ -6855,7 +10875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>53</v>
       </c>
@@ -6875,7 +10895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
         <v>57</v>
       </c>
@@ -6895,7 +10915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -6913,7 +10933,7 @@
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.5" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
@@ -6931,7 +10951,7 @@
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
@@ -6951,7 +10971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="28" t="s">
         <v>73</v>
       </c>
@@ -6971,7 +10991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="15" customHeight="1">
       <c r="A50" s="25" t="s">
         <v>93</v>
       </c>
@@ -6991,31 +11011,31 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="39" t="s">
+    <row r="51" spans="1:8" ht="19" customHeight="1">
+      <c r="A51" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-    </row>
-    <row r="52" spans="1:8" ht="375" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="31" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+    </row>
+    <row r="52" spans="1:8" ht="375" customHeight="1">
+      <c r="A52" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7025,7 +11045,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -7035,7 +11055,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -7045,7 +11065,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -7055,7 +11075,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -7065,7 +11085,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -7075,7 +11095,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -7085,7 +11105,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7095,7 +11115,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -7105,7 +11125,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -7115,7 +11135,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7125,7 +11145,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7135,7 +11155,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7145,7 +11165,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7155,7 +11175,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7165,7 +11185,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7175,7 +11195,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7185,7 +11205,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7195,7 +11215,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7205,7 +11225,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7215,7 +11235,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -7225,7 +11245,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -7235,7 +11255,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7245,7 +11265,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7255,7 +11275,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7265,7 +11285,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7275,7 +11295,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7285,7 +11305,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7295,7 +11315,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7305,7 +11325,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7315,7 +11335,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7325,7 +11345,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7337,6 +11357,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="A51:H51"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
@@ -7346,12 +11372,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7362,7 +11382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -7370,7 +11390,7 @@
       <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -7378,101 +11398,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7498,7 +11518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7518,67 +11538,67 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="53" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="39" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -7604,7 +11624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7622,7 +11642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -7640,7 +11660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -7658,31 +11678,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1">
+      <c r="A20" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7692,7 +11712,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7702,7 +11722,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7712,7 +11732,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7722,7 +11742,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
@@ -7732,7 +11752,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7742,7 +11762,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7752,7 +11772,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="268" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7762,7 +11782,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7772,7 +11792,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7782,7 +11802,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -7792,7 +11812,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7802,27 +11822,27 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -7832,7 +11852,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -7842,7 +11862,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -7852,7 +11872,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7862,7 +11882,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7872,7 +11892,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7882,7 +11902,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -7892,7 +11912,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -7902,7 +11922,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -7912,7 +11932,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -7922,7 +11942,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -7932,7 +11952,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -7942,7 +11962,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -7952,7 +11972,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -7962,7 +11982,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -7972,7 +11992,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="271" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -7982,7 +12002,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7992,7 +12012,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -8002,7 +12022,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -8012,7 +12032,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -8022,7 +12042,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -8032,7 +12052,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -8042,7 +12062,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -8052,7 +12072,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -8062,7 +12082,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -8072,7 +12092,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -8082,7 +12102,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -8092,7 +12112,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -8102,7 +12122,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -8112,7 +12132,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -8122,7 +12142,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -8132,7 +12152,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -8142,7 +12162,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -8152,7 +12172,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -8162,7 +12182,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -8172,7 +12192,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -8182,7 +12202,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -8192,7 +12212,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -8202,7 +12222,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -8212,7 +12232,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -8222,7 +12242,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -8232,7 +12252,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -8242,7 +12262,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -8252,7 +12272,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -8262,7 +12282,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -8272,7 +12292,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -8282,7 +12302,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -8292,7 +12312,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -8302,7 +12322,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -8312,7 +12332,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -8322,7 +12342,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -8332,7 +12352,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -8342,7 +12362,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -8352,7 +12372,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -8362,7 +12382,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -8372,7 +12392,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -8382,7 +12402,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -8392,7 +12412,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -8402,7 +12422,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -8412,7 +12432,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -8424,6 +12444,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8433,13 +12460,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Free_API.xlsx
+++ b/api/Board/Free_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7CE41-9E89-4E15-B8C3-3F0BE4BBF86E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B98D6-8D60-4AE0-AF0E-A0B6270398DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="자유게시판 전체 조회" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="129">
   <si>
     <t>Title</t>
   </si>
@@ -888,6 +888,889 @@
   </si>
   <si>
     <t>List&lt;Object&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "likes" : 1,
+      "is_anonymous" : "true",
+      "level" : 0,
+      "user_id" : 1
+   }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "likes" : 1,
+      "is_anonymous" : "true",
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0
+   }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>익명여부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>익명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> true, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비익명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> false</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "writer" : "tester",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "likes" : 1,
+      "is_anonymous" : "true",
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "board_id" : 1
+   }
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -937,6 +1820,7 @@
         <family val="2"/>
       </rPr>
       <t>",
+      "writer" : "tester",
       "content" : "</t>
     </r>
     <r>
@@ -996,863 +1880,6 @@
    }
 }</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "likes" : 1,
-      "is_anonymous" : "true",
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "board_id" : 1
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "likes" : 1,
-      "is_anonymous" : "true",
-      "level" : 0,
-      "user_id" : 1
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "likes" : 1,
-      "is_anonymous" : "true",
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>익명여부</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_anonymous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>익명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> true, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비익명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> false</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pagination </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_pages</t>
-  </si>
-  <si>
-    <t>total_elements</t>
-  </si>
-  <si>
-    <t>current_page</t>
-  </si>
-  <si>
-    <t>current_elements</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Free (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자유게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board/free/search/title?title=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/board/free/search/title?title=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Free (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자유게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board/free/search/title&amp;content?title=name&amp;content=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/board/free/search/title&amp;content?title=name&amp;content=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Free (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자유게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/board/free/search/writer?writer=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/board/free/search/writer?writer=name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2198,13 +2225,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2229,6 +2249,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2333,6 +2357,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2650,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2666,95 +2696,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -2803,64 +2833,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2999,32 +3029,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -3032,124 +3062,124 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="27" t="s">
-        <v>92</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -3159,35 +3189,37 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
+      <c r="A31" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -3195,184 +3227,192 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="25" t="s">
+      <c r="G34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="28" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="28" t="s">
+      <c r="G35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="25" t="s">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="25" t="s">
+      <c r="G36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A36" s="35" t="s">
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="36" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="G40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-    </row>
-    <row r="42" spans="1:8" ht="367" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A43" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -3866,6 +3906,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A43:H43"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
@@ -3873,7 +3914,6 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -3895,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEDB40-C0BF-4D6D-9763-2B003D363FCE}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -3911,95 +3951,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -4028,198 +4068,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="A12" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4244,32 +4284,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -4277,124 +4317,124 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="27" t="s">
-        <v>92</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -4404,35 +4444,37 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
+      <c r="A31" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -4440,184 +4482,192 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="G34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="32" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="32" t="s">
+      <c r="G35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="32" t="s">
+      <c r="G36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A36" s="35" t="s">
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="36" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="G40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-    </row>
-    <row r="42" spans="1:8" ht="367" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A43" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -4670,84 +4720,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -4780,54 +4830,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -5111,7 +5161,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -5119,12 +5175,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5140,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76F41EA-A71C-46B6-A57C-7AE6D1331F28}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -5156,95 +5206,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -5273,198 +5323,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="A12" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5489,32 +5539,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -5522,124 +5572,124 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="27" t="s">
-        <v>92</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -5649,35 +5699,37 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
+      <c r="A31" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -5685,184 +5737,192 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="G34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="32" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="32" t="s">
+      <c r="G35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="32" t="s">
+      <c r="G36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A36" s="35" t="s">
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="36" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="G40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-    </row>
-    <row r="42" spans="1:8" ht="367" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A43" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -5915,84 +5975,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -6025,54 +6085,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -6356,7 +6416,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -6364,12 +6430,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6385,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC73131-1F2D-41E4-B4E1-F8C41301C568}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -6401,95 +6461,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6518,198 +6578,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="A12" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6734,32 +6794,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -6767,124 +6827,124 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="27" t="s">
-        <v>92</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -6894,35 +6954,37 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
+      <c r="A31" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -6930,184 +6992,192 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="G34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="32" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="32" t="s">
+      <c r="G35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="32" t="s">
+      <c r="G36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A36" s="35" t="s">
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="36" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="G40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-    </row>
-    <row r="42" spans="1:8" ht="367" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A43" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -7160,84 +7230,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -7270,54 +7340,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -7601,7 +7671,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -7609,12 +7685,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7630,8 +7700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -7646,95 +7716,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -7793,64 +7863,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
@@ -7989,32 +8059,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -8022,124 +8092,124 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="27" t="s">
-        <v>92</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -8149,35 +8219,37 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
+      <c r="A31" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -8185,88 +8257,106 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="25" t="s">
+      <c r="G34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="28" t="s">
+    <row r="35" spans="1:8" ht="16" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="28" t="s">
+      <c r="G35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1">
-      <c r="A35" s="25" t="s">
+    <row r="36" spans="1:8" ht="18" customHeight="1">
+      <c r="A36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="25" t="s">
+      <c r="G36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="49" t="s">
+    <row r="37" spans="1:8" ht="17" customHeight="1">
+      <c r="A37" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51"/>
-    </row>
-    <row r="37" spans="1:8" ht="354.5" customHeight="1">
-      <c r="A37" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+    </row>
+    <row r="38" spans="1:8" ht="391" customHeight="1">
+      <c r="A38" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="17"/>
@@ -8800,6 +8890,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
@@ -8807,7 +8898,6 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A36:H36"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -8828,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -8844,95 +8934,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -9152,22 +9242,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9267,66 +9357,66 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" ht="303.5" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="A28" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
@@ -9465,32 +9555,32 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
@@ -9498,124 +9588,124 @@
         <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>49</v>
+      <c r="A40" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9" t="s">
-        <v>51</v>
+      <c r="A41" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>52</v>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="9" t="s">
+      <c r="F41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>88</v>
+      <c r="H42" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B43" s="38"/>
       <c r="C43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B44" s="38"/>
       <c r="C44" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>21</v>
@@ -9625,35 +9715,37 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="8" t="s">
-        <v>59</v>
+      <c r="A46" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>32</v>
@@ -9661,88 +9753,106 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="25" t="s">
+      <c r="G49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="25" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="25" t="s">
+      <c r="G50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="25" t="s">
+    <row r="51" spans="1:8" ht="19" customHeight="1">
+      <c r="A51" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25" t="s">
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="25" t="s">
+      <c r="G51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" customHeight="1">
-      <c r="A51" s="49" t="s">
+    <row r="52" spans="1:8" ht="17" customHeight="1">
+      <c r="A52" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
-    </row>
-    <row r="52" spans="1:8" ht="358.5" customHeight="1">
-      <c r="A52" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="53" spans="1:8" ht="391" customHeight="1">
+      <c r="A53" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -10066,7 +10176,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
@@ -10094,8 +10204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -10110,95 +10220,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -10438,22 +10548,22 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10553,66 +10663,66 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:13" ht="17" customHeight="1">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:13" ht="264" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="A28" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="26" t="s">
@@ -10657,11 +10767,11 @@
       <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="25" t="s">
@@ -10756,32 +10866,32 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
@@ -10789,124 +10899,124 @@
         <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>49</v>
+      <c r="A40" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9" t="s">
-        <v>51</v>
+      <c r="A41" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>52</v>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="9" t="s">
+      <c r="F41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>88</v>
+      <c r="H42" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B43" s="38"/>
       <c r="C43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="B44" s="38"/>
       <c r="C44" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>21</v>
@@ -10916,35 +11026,37 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="8" t="s">
-        <v>59</v>
+      <c r="A46" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.5" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>32</v>
@@ -10952,88 +11064,106 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="25" t="s">
+      <c r="G49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="28" t="s">
+    <row r="50" spans="1:8" ht="15" customHeight="1">
+      <c r="A50" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="28" t="s">
+      <c r="G50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
-      <c r="A50" s="25" t="s">
+    <row r="51" spans="1:8" ht="19" customHeight="1">
+      <c r="A51" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25" t="s">
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="25" t="s">
+      <c r="G51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" customHeight="1">
-      <c r="A51" s="49" t="s">
+    <row r="52" spans="1:8" ht="17" customHeight="1">
+      <c r="A52" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
-    </row>
-    <row r="52" spans="1:8" ht="375" customHeight="1">
-      <c r="A52" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="53" spans="1:8" ht="391" customHeight="1">
+      <c r="A53" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -11357,13 +11487,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
@@ -11372,6 +11496,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11402,95 +11532,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -11539,64 +11669,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -11679,28 +11809,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13"/>
@@ -11823,24 +11953,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
@@ -12444,13 +12574,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -12460,6 +12583,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Free_API.xlsx
+++ b/api/Board/Free_API.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B98D6-8D60-4AE0-AF0E-A0B6270398DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA6D7FA-FCA8-4FC3-B8AD-463CF9D8AAAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="자유게시판 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="자유게시판 검색(제목)" sheetId="6" r:id="rId2"/>
-    <sheet name="자유게시판 검색(제목+내용)" sheetId="7" r:id="rId3"/>
-    <sheet name="자유게시판 검색(작성자)" sheetId="8" r:id="rId4"/>
-    <sheet name="자유게시판 상세 조회" sheetId="2" r:id="rId5"/>
-    <sheet name="자유게시판 작성" sheetId="3" r:id="rId6"/>
-    <sheet name="자유게시판 수정" sheetId="4" r:id="rId7"/>
-    <sheet name="자유게시판 삭제" sheetId="5" r:id="rId8"/>
+    <sheet name="자유게시판 좋아요" sheetId="9" r:id="rId1"/>
+    <sheet name="자유게시판 전체 조회" sheetId="1" r:id="rId2"/>
+    <sheet name="자유게시판 검색(제목)" sheetId="6" r:id="rId3"/>
+    <sheet name="자유게시판 검색(제목+내용)" sheetId="7" r:id="rId4"/>
+    <sheet name="자유게시판 검색(작성자)" sheetId="8" r:id="rId5"/>
+    <sheet name="자유게시판 상세 조회" sheetId="2" r:id="rId6"/>
+    <sheet name="자유게시판 작성" sheetId="3" r:id="rId7"/>
+    <sheet name="자유게시판 수정" sheetId="4" r:id="rId8"/>
+    <sheet name="자유게시판 삭제" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="132">
   <si>
     <t>Title</t>
   </si>
@@ -1880,6 +1881,58 @@
    }
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Free (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/free/likes/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/free/likes/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2147,6 +2200,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2156,7 +2240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2255,6 +2339,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2263,6 +2363,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2275,15 +2384,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2357,10 +2457,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2677,10 +2786,1231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E909AA-D543-4598-9A31-3D64BF5BCA38}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A37" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+    </row>
+    <row r="38" spans="1:8" ht="294" customHeight="1">
+      <c r="A38" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="86"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="43"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="86"/>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{72B70AB8-7803-44A8-9A37-8006B0798D57}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{D8D35F74-E7C5-4EDD-8C2B-FDFDD230F5FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
@@ -2696,95 +4026,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -2833,64 +4163,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -3032,12 +4362,12 @@
       <c r="A23" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="39" t="s">
         <v>64</v>
       </c>
@@ -3189,7 +4519,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="8"/>
@@ -3391,28 +4721,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -3931,11 +5261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEDB40-C0BF-4D6D-9763-2B003D363FCE}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
@@ -3951,95 +5281,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -4088,64 +5418,64 @@
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="30" t="s">
@@ -4287,12 +5617,12 @@
       <c r="A23" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="39" t="s">
         <v>64</v>
       </c>
@@ -4444,7 +5774,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="8"/>
@@ -4646,28 +5976,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -5186,12 +6516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76F41EA-A71C-46B6-A57C-7AE6D1331F28}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:H43"/>
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -5206,95 +6536,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -5343,64 +6673,64 @@
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="30" t="s">
@@ -5542,12 +6872,12 @@
       <c r="A23" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="39" t="s">
         <v>64</v>
       </c>
@@ -5699,7 +7029,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="8"/>
@@ -5826,7 +7156,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="32" t="s">
         <v>109</v>
       </c>
@@ -5901,28 +7231,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -6441,7 +7771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC73131-1F2D-41E4-B4E1-F8C41301C568}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -6461,95 +7791,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6598,64 +7928,64 @@
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="30" t="s">
@@ -6797,12 +8127,12 @@
       <c r="A23" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="39" t="s">
         <v>64</v>
       </c>
@@ -6954,7 +8284,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="8"/>
@@ -7156,28 +8486,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -7696,12 +9026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:H38"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A17:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -7716,95 +9046,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -7863,64 +9193,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
@@ -8062,12 +9392,12 @@
       <c r="A23" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="39" t="s">
         <v>64</v>
       </c>
@@ -8219,7 +9549,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="8"/>
@@ -8335,28 +9665,28 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:8" ht="391" customHeight="1">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="17"/>
@@ -8914,11 +10244,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:H53"/>
     </sheetView>
   </sheetViews>
@@ -8934,95 +10264,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -9357,66 +10687,66 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:8" ht="303.5" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
@@ -9558,12 +10888,12 @@
       <c r="A38" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="39" t="s">
         <v>64</v>
       </c>
@@ -9715,7 +11045,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="8"/>
@@ -9831,28 +11161,28 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" customHeight="1">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53" spans="1:8" ht="391" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -10200,7 +11530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -10220,95 +11550,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -10663,66 +11993,66 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:13" ht="17" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:13" ht="264" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="26" t="s">
@@ -10767,11 +12097,11 @@
       <c r="H32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="25" t="s">
@@ -10869,12 +12199,12 @@
       <c r="A38" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="39" t="s">
         <v>64</v>
       </c>
@@ -11026,7 +12356,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="8"/>
@@ -11142,28 +12472,28 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" customHeight="1">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53" spans="1:8" ht="391" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -11487,6 +12817,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="B7:H7"/>
@@ -11496,12 +12832,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11512,7 +12842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -11532,95 +12862,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -11669,64 +12999,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -11809,28 +13139,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13"/>
@@ -11953,24 +13283,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
@@ -12574,6 +13904,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -12583,13 +13920,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
